--- a/changes/ump.xlsx
+++ b/changes/ump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E1F99-2C70-49D5-96B1-ADF657974597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075ED202-C9C5-4ACC-B464-99516A50DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>old</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>Haga Defense USC</t>
+  </si>
+  <si>
+    <t>ump9_std_200mm_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP 9x19 8" </t>
+  </si>
+  <si>
+    <t>ump9_std_203mm_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP 9x19 8" Threaded </t>
+  </si>
+  <si>
+    <t>hk_usc_419mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK USC 9x19 16.5" </t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N19" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
+        <f t="shared" ref="N3:N20" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
         <v>11</v>
       </c>
       <c r="P3">
@@ -1156,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA37" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
+        <f t="shared" ref="AA3:AA20" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -1483,133 +1501,133 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="E13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-0.15</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>-2.8</v>
+        <v>-5.7</v>
       </c>
       <c r="P13">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="Q13">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="R13">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
       <c r="V13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AA13">
         <f t="shared" si="1"/>
-        <v>-5.1999999999999984</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D14">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H14">
+        <v>-0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14">
+        <f>C14-D14*20-E14*0.8-F14*0.6-H14*5+I14*5+J14/300</f>
+        <v>-2.8</v>
+      </c>
+      <c r="P14">
+        <v>-4</v>
+      </c>
+      <c r="Q14">
+        <v>0.38</v>
+      </c>
+      <c r="R14">
+        <v>-4</v>
+      </c>
+      <c r="S14">
+        <v>-2</v>
+      </c>
+      <c r="U14">
+        <v>-0.1</v>
+      </c>
+      <c r="V14">
         <v>0.1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>-0.15</v>
-      </c>
-      <c r="M14">
-        <v>600</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>-5.7</v>
-      </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
-      <c r="Q14">
-        <v>0.21</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0.05</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z14">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
-        <v>-5.45</v>
+        <f>P14-Q14*20-R14*0.8-S14*0.6-U14*5+V14*5+W14/300</f>
+        <v>-5.1999999999999984</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1624,46 +1642,248 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-10</v>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>-25</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
+        <v>-4.083333333333333</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>-25</v>
+      </c>
+      <c r="Z16">
+        <v>500</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>-4.083333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>0.21</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-25</v>
+      </c>
+      <c r="M17">
+        <v>600</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-5.7833333333333332</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>0.21</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>-25</v>
+      </c>
+      <c r="Z17">
+        <v>600</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>-5.7833333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>-4</v>
+      </c>
+      <c r="D18">
+        <v>0.36</v>
+      </c>
+      <c r="E18">
+        <v>-5</v>
+      </c>
+      <c r="F18">
+        <v>-3</v>
+      </c>
+      <c r="H18">
+        <v>-0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>275</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-2.9833333333333329</v>
+      </c>
+      <c r="P18">
+        <v>-4</v>
+      </c>
+      <c r="Q18">
+        <v>0.36</v>
+      </c>
+      <c r="R18">
+        <v>-3</v>
+      </c>
+      <c r="S18">
+        <v>-2</v>
+      </c>
+      <c r="U18">
+        <v>-0.1</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18">
+        <v>275</v>
+      </c>
+      <c r="Z18">
+        <v>1000</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>-5.6833333333333318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <v>-3</v>
+      </c>
+      <c r="F20">
+        <v>-10</v>
+      </c>
+      <c r="M20">
+        <v>2000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="P16">
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q16">
+      <c r="Q20">
         <v>0.25</v>
       </c>
-      <c r="R16">
+      <c r="R20">
         <v>-3</v>
       </c>
-      <c r="S16">
+      <c r="S20">
         <v>-6</v>
       </c>
-      <c r="Z16">
+      <c r="Z20">
         <v>2000</v>
       </c>
-      <c r="AA16">
+      <c r="AA20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>

--- a/changes/ump.xlsx
+++ b/changes/ump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075ED202-C9C5-4ACC-B464-99516A50DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF3BCB-F61B-4972-96BD-ADDBBD5B7C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>old</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t xml:space="preserve">HK USC 9x19 16.5" </t>
+  </si>
+  <si>
+    <t>direct_thread_adapter_omega45k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.45ACP Direct thread adapter for Omega 45K suppressor </t>
+  </si>
+  <si>
+    <t>silencerco_osprey45_gen1_45acp_suppressor</t>
+  </si>
+  <si>
+    <t>SilencerCo Osprey 45 Gen 1 .45ACP Suppressor</t>
+  </si>
+  <si>
+    <t>silencerco_osprey45_gen1_45acp_suppressor_flipped</t>
+  </si>
+  <si>
+    <t>SilencerCo Osprey 45 Gen 1 .45ACP Suppressor Flipped</t>
+  </si>
+  <si>
+    <t>silencerco_omega45k_45acp_suppressor</t>
+  </si>
+  <si>
+    <t>SilencerCo Omega45K</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N20" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
+        <f t="shared" ref="N3:N25" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
         <v>11</v>
       </c>
       <c r="P3">
@@ -1174,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA20" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
+        <f t="shared" ref="AA3:AA25" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -1886,6 +1910,272 @@
       <c r="AA20">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.05</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>-3.4333333333333336</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.03</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.05</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>200</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>-2.4333333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>-2</v>
+      </c>
+      <c r="D23">
+        <v>0.09</v>
+      </c>
+      <c r="E23">
+        <v>-4</v>
+      </c>
+      <c r="F23">
+        <v>-5</v>
+      </c>
+      <c r="H23">
+        <v>-0.05</v>
+      </c>
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>1200</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>3.166666666666667</v>
+      </c>
+      <c r="P23">
+        <v>-2</v>
+      </c>
+      <c r="Q23">
+        <v>0.09</v>
+      </c>
+      <c r="R23">
+        <v>-4</v>
+      </c>
+      <c r="S23">
+        <v>-5</v>
+      </c>
+      <c r="U23">
+        <v>-0.05</v>
+      </c>
+      <c r="V23">
+        <v>0.08</v>
+      </c>
+      <c r="W23">
+        <v>80</v>
+      </c>
+      <c r="Z23">
+        <v>1200</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>3.3166666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>-8</v>
+      </c>
+      <c r="D24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E24">
+        <v>-2</v>
+      </c>
+      <c r="F24">
+        <v>-9</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.27</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="M24">
+        <v>1500</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>-4.7833333333333341</v>
+      </c>
+      <c r="P24">
+        <v>-7</v>
+      </c>
+      <c r="Q24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R24">
+        <v>-2</v>
+      </c>
+      <c r="S24">
+        <v>-9</v>
+      </c>
+      <c r="U24">
+        <v>-0.05</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>200</v>
+      </c>
+      <c r="Z24">
+        <v>1500</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>-3.8833333333333351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>-8</v>
+      </c>
+      <c r="D25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E25">
+        <v>-2</v>
+      </c>
+      <c r="F25">
+        <v>-9</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.27</v>
+      </c>
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="M25">
+        <v>1500</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-4.7833333333333341</v>
+      </c>
+      <c r="P25">
+        <v>-7</v>
+      </c>
+      <c r="Q25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R25">
+        <v>-2</v>
+      </c>
+      <c r="S25">
+        <v>-9</v>
+      </c>
+      <c r="U25">
+        <v>-0.05</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>200</v>
+      </c>
+      <c r="Z25">
+        <v>1500</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>-3.8833333333333351</v>
       </c>
     </row>
   </sheetData>

--- a/changes/ump.xlsx
+++ b/changes/ump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF3BCB-F61B-4972-96BD-ADDBBD5B7C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB4F52-7871-41FD-B9FA-894FD2DB493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>old</t>
   </si>
@@ -146,12 +146,6 @@
     <t>GHW Tailhook MOD 1</t>
   </si>
   <si>
-    <t>magpul_moe_carbine_stock</t>
-  </si>
-  <si>
-    <t>Magpul MOE Carbine</t>
-  </si>
-  <si>
     <t>ump45_std_200mm_barrel</t>
   </si>
   <si>
@@ -216,6 +210,9 @@
   </si>
   <si>
     <t>SilencerCo Omega45K</t>
+  </si>
+  <si>
+    <t>MOE Carbine</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1056,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,20 +1183,20 @@
         <v>11</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="R3">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="S3">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA25" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
-        <v>16.399999999999999</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1229,23 +1226,23 @@
         <v>17.600000000000001</v>
       </c>
       <c r="P4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="R4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="S4">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="Z4">
         <v>600</v>
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1285,69 +1282,100 @@
         <v>-19.399999999999999</v>
       </c>
       <c r="P6">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>1000</v>
       </c>
       <c r="AA6">
         <f t="shared" si="1"/>
-        <v>-12.6</v>
+        <v>-7.3999999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F7">
-        <v>-8</v>
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="P7">
         <v>17</v>
       </c>
       <c r="Q7">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="R7">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="S7">
-        <v>-8</v>
+        <v>-10</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1390,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1403,7 +1431,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1433,7 +1461,7 @@
         <v>16.2</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10">
         <v>0.09</v>
@@ -1446,7 +1474,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="1"/>
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1461,10 +1489,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1525,10 +1553,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1592,10 +1620,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>-4</v>
@@ -1666,10 +1694,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1730,10 +1758,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1794,10 +1822,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>-4</v>
@@ -1868,10 +1896,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1924,10 +1952,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -1988,10 +2016,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>-2</v>
@@ -2052,10 +2080,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>-8</v>
@@ -2116,10 +2144,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>-8</v>

--- a/changes/ump.xlsx
+++ b/changes/ump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB4F52-7871-41FD-B9FA-894FD2DB493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3232F5-8DB1-498E-AD18-24035AAAB026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>old</t>
   </si>
@@ -146,46 +146,10 @@
     <t>GHW Tailhook MOD 1</t>
   </si>
   <si>
-    <t>ump45_std_200mm_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP .45ACP 8" </t>
-  </si>
-  <si>
-    <t>ump45_std_420mm_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP .45ACP Threaded 16.5" </t>
-  </si>
-  <si>
-    <t>ump45_std_203mm_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP .45ACP Threaded 8" </t>
-  </si>
-  <si>
     <t>haga_defense_usc_extended_handguard</t>
   </si>
   <si>
     <t>Haga Defense USC</t>
-  </si>
-  <si>
-    <t>ump9_std_200mm_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP 9x19 8" </t>
-  </si>
-  <si>
-    <t>ump9_std_203mm_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP 9x19 8" Threaded </t>
-  </si>
-  <si>
-    <t>hk_usc_419mm_9x19_barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK USC 9x19 16.5" </t>
   </si>
   <si>
     <t>direct_thread_adapter_omega45k</t>
@@ -1053,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N25" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
+        <f t="shared" ref="N3:N17" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*5+J3/300</f>
         <v>11</v>
       </c>
       <c r="P3">
@@ -1195,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA25" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
+        <f t="shared" ref="AA3:AA17" si="1">P3-Q3*20-R3*0.8-S3*0.6-U3*5+V3*5+W3/300</f>
         <v>21.8</v>
       </c>
     </row>
@@ -1303,7 +1267,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -1495,127 +1459,52 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>8.4</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AA12">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>0.21</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>-0.15</v>
-      </c>
-      <c r="M13">
-        <v>600</v>
-      </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>-5.7</v>
-      </c>
-      <c r="P13">
-        <v>-1</v>
-      </c>
-      <c r="Q13">
-        <v>0.21</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0.05</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <f t="shared" si="1"/>
-        <v>-5.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1626,582 +1515,250 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D14">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="E14">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N14">
-        <f>C14-D14*20-E14*0.8-F14*0.6-H14*5+I14*5+J14/300</f>
-        <v>-2.8</v>
+        <f t="shared" si="0"/>
+        <v>-3.4333333333333336</v>
       </c>
       <c r="P14">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="R14">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
       <c r="V14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="Z14">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA14">
-        <f>P14-Q14*20-R14*0.8-S14*0.6-U14*5+V14*5+W14/300</f>
-        <v>-5.1999999999999984</v>
+        <f t="shared" si="1"/>
+        <v>-2.4333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>-2</v>
+      </c>
+      <c r="D15">
+        <v>0.09</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
+        <v>-5</v>
+      </c>
+      <c r="H15">
+        <v>-0.05</v>
+      </c>
+      <c r="I15">
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>1200</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.166666666666667</v>
+      </c>
+      <c r="P15">
+        <v>-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.09</v>
+      </c>
+      <c r="R15">
+        <v>-4</v>
+      </c>
+      <c r="S15">
+        <v>-5</v>
+      </c>
+      <c r="U15">
+        <v>-0.05</v>
+      </c>
+      <c r="V15">
+        <v>0.08</v>
+      </c>
+      <c r="W15">
+        <v>80</v>
+      </c>
+      <c r="Z15">
+        <v>1200</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3166666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J16">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="M16">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>-4.083333333333333</v>
+        <v>-4.7833333333333341</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Q16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R16">
+        <v>-2</v>
+      </c>
+      <c r="S16">
+        <v>-9</v>
+      </c>
+      <c r="U16">
+        <v>-0.05</v>
+      </c>
+      <c r="V16">
         <v>0.2</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
       <c r="W16">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="Z16">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AA16">
         <f t="shared" si="1"/>
-        <v>-4.083333333333333</v>
+        <v>-3.8833333333333351</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D17">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J17">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="M17">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>-5.7833333333333332</v>
+        <v>-4.7833333333333341</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="Q17">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="U17">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W17">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="Z17">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="1"/>
-        <v>-5.7833333333333332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>-4</v>
-      </c>
-      <c r="D18">
-        <v>0.36</v>
-      </c>
-      <c r="E18">
-        <v>-5</v>
-      </c>
-      <c r="F18">
-        <v>-3</v>
-      </c>
-      <c r="H18">
-        <v>-0.2</v>
-      </c>
-      <c r="I18">
-        <v>0.1</v>
-      </c>
-      <c r="J18">
-        <v>275</v>
-      </c>
-      <c r="M18">
-        <v>1000</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>-2.9833333333333329</v>
-      </c>
-      <c r="P18">
-        <v>-4</v>
-      </c>
-      <c r="Q18">
-        <v>0.36</v>
-      </c>
-      <c r="R18">
-        <v>-3</v>
-      </c>
-      <c r="S18">
-        <v>-2</v>
-      </c>
-      <c r="U18">
-        <v>-0.1</v>
-      </c>
-      <c r="V18">
-        <v>0.1</v>
-      </c>
-      <c r="W18">
-        <v>275</v>
-      </c>
-      <c r="Z18">
-        <v>1000</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="1"/>
-        <v>-5.6833333333333318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>0.25</v>
-      </c>
-      <c r="E20">
-        <v>-3</v>
-      </c>
-      <c r="F20">
-        <v>-10</v>
-      </c>
-      <c r="M20">
-        <v>2000</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>-3</v>
-      </c>
-      <c r="S20">
-        <v>-6</v>
-      </c>
-      <c r="Z20">
-        <v>2000</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22">
-        <v>0.03</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0.05</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>200</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>-3.4333333333333336</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0.03</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0.05</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>5</v>
-      </c>
-      <c r="Z22">
-        <v>200</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="1"/>
-        <v>-2.4333333333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>-2</v>
-      </c>
-      <c r="D23">
-        <v>0.09</v>
-      </c>
-      <c r="E23">
-        <v>-4</v>
-      </c>
-      <c r="F23">
-        <v>-5</v>
-      </c>
-      <c r="H23">
-        <v>-0.05</v>
-      </c>
-      <c r="I23">
-        <v>0.05</v>
-      </c>
-      <c r="J23">
-        <v>80</v>
-      </c>
-      <c r="M23">
-        <v>1200</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>3.166666666666667</v>
-      </c>
-      <c r="P23">
-        <v>-2</v>
-      </c>
-      <c r="Q23">
-        <v>0.09</v>
-      </c>
-      <c r="R23">
-        <v>-4</v>
-      </c>
-      <c r="S23">
-        <v>-5</v>
-      </c>
-      <c r="U23">
-        <v>-0.05</v>
-      </c>
-      <c r="V23">
-        <v>0.08</v>
-      </c>
-      <c r="W23">
-        <v>80</v>
-      </c>
-      <c r="Z23">
-        <v>1200</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="1"/>
-        <v>3.3166666666666669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
-        <v>-8</v>
-      </c>
-      <c r="D24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E24">
-        <v>-2</v>
-      </c>
-      <c r="F24">
-        <v>-9</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0.27</v>
-      </c>
-      <c r="J24">
-        <v>200</v>
-      </c>
-      <c r="M24">
-        <v>1500</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>-4.7833333333333341</v>
-      </c>
-      <c r="P24">
-        <v>-7</v>
-      </c>
-      <c r="Q24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R24">
-        <v>-2</v>
-      </c>
-      <c r="S24">
-        <v>-9</v>
-      </c>
-      <c r="U24">
-        <v>-0.05</v>
-      </c>
-      <c r="V24">
-        <v>0.2</v>
-      </c>
-      <c r="W24">
-        <v>200</v>
-      </c>
-      <c r="Z24">
-        <v>1500</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="1"/>
-        <v>-3.8833333333333351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25">
-        <v>-8</v>
-      </c>
-      <c r="D25">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E25">
-        <v>-2</v>
-      </c>
-      <c r="F25">
-        <v>-9</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.27</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
-      </c>
-      <c r="M25">
-        <v>1500</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>-4.7833333333333341</v>
-      </c>
-      <c r="P25">
-        <v>-7</v>
-      </c>
-      <c r="Q25">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R25">
-        <v>-2</v>
-      </c>
-      <c r="S25">
-        <v>-9</v>
-      </c>
-      <c r="U25">
-        <v>-0.05</v>
-      </c>
-      <c r="V25">
-        <v>0.2</v>
-      </c>
-      <c r="W25">
-        <v>200</v>
-      </c>
-      <c r="Z25">
-        <v>1500</v>
-      </c>
-      <c r="AA25">
         <f t="shared" si="1"/>
         <v>-3.8833333333333351</v>
       </c>
